--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PKL PROJECT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pegawaidata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A0111DF-313E-4334-8E9F-7067F57DAB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF88952-9523-452F-92A8-5B86D5557F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EF60FE58-5829-46B5-9609-3FEA6C5DE789}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>No</t>
   </si>
@@ -97,6 +97,30 @@
   </si>
   <si>
     <t>Peluncuran dan Pemeliharaan</t>
+  </si>
+  <si>
+    <t>Agama</t>
+  </si>
+  <si>
+    <t>Golongan</t>
+  </si>
+  <si>
+    <t>Jabatan</t>
+  </si>
+  <si>
+    <t>Jenis Kelamin</t>
+  </si>
+  <si>
+    <t>Pegawai</t>
+  </si>
+  <si>
+    <t>Login/logout</t>
+  </si>
+  <si>
+    <t>Laporan</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
   </si>
 </sst>
 </file>
@@ -185,26 +209,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -520,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0937DEA3-E3D9-44D7-9363-60B829D45EBF}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -535,307 +572,490 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1" t="s">
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="1"/>
+      <c r="S1" s="3"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1">
         <v>3</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>4</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>2</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>3</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>4</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>1</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>2</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>3</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>4</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>1</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>2</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>3</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>4</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>1</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+      <c r="A6" s="11"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7" s="12"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A8" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
+      <c r="B8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A9" s="11"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A10" s="11"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A11" s="11"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A12" s="11"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A13" s="11"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A14" s="11"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A15" s="11"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A16" s="12"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="N1:Q1"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pegawaidata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF88952-9523-452F-92A8-5B86D5557F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468F49B5-3DAE-4FC9-8AFE-02BBE7803C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EF60FE58-5829-46B5-9609-3FEA6C5DE789}"/>
   </bookViews>
@@ -137,12 +137,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -209,30 +215,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -243,6 +230,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0937DEA3-E3D9-44D7-9363-60B829D45EBF}">
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -572,46 +569,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3" t="s">
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3" t="s">
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="3"/>
+      <c r="S1" s="7"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="1">
         <v>3</v>
       </c>
@@ -662,16 +659,16 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -689,15 +686,13 @@
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -714,10 +709,10 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="10">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -725,7 +720,7 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -741,15 +736,15 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="11"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -764,8 +759,8 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
@@ -773,7 +768,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -787,10 +782,10 @@
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="10">
-        <v>4</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -801,7 +796,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="9"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -814,9 +809,9 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="11"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="6" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="1"/>
@@ -825,7 +820,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="J9" s="9"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -837,9 +832,9 @@
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="11"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="6" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="1"/>
@@ -849,7 +844,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="K10" s="9"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -860,9 +855,9 @@
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="11"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="6" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="1"/>
@@ -873,7 +868,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="L11" s="9"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -883,9 +878,9 @@
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="11"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="6" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="1"/>
@@ -897,7 +892,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="M12" s="9"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -906,9 +901,9 @@
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="11"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="6" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="1"/>
@@ -921,7 +916,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="N13" s="9"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -929,9 +924,9 @@
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="11"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="6" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="1"/>
@@ -945,16 +940,16 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
+      <c r="O14" s="9"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="11"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="6" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="1"/>
@@ -969,15 +964,15 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
+      <c r="P15" s="9"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="12"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="6" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="1"/>
@@ -993,13 +988,13 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
+      <c r="Q16" s="9"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>13</v>
@@ -1021,12 +1016,12 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
+      <c r="R17" s="9"/>
       <c r="S17" s="1"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>20</v>
@@ -1049,15 +1044,10 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
+      <c r="S18" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B3:B4"/>
+  <mergeCells count="14">
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="A1:A2"/>
@@ -1066,6 +1056,12 @@
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
